--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_194.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_194.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32648-d77587-Reviews-Days_Inn_Long_Beach_City_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>488</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>509</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Days-Inn-By-Wyndham-Long-Beach-City-Center.h13639.Hotel-Information?chkin=6%2F18%2F2018&amp;chkout=6%2F19%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1528258112641&amp;cancellable=false&amp;regionId=178280&amp;vip=false&amp;c=3fa5995a-6b32-4ddb-b59e-c976bb6d3189&amp;mctc=9&amp;exp_dp=89.99&amp;exp_ts=1528258113318&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_194.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_194.xlsx
@@ -7860,7 +7860,7 @@
         <v>25501</v>
       </c>
       <c r="B5" t="n">
-        <v>135452</v>
+        <v>166370</v>
       </c>
       <c r="C5" t="s">
         <v>78</v>
@@ -7935,7 +7935,7 @@
         <v>25501</v>
       </c>
       <c r="B6" t="n">
-        <v>135453</v>
+        <v>166371</v>
       </c>
       <c r="C6" t="s">
         <v>89</v>
@@ -8000,7 +8000,7 @@
         <v>25501</v>
       </c>
       <c r="B7" t="n">
-        <v>135454</v>
+        <v>166372</v>
       </c>
       <c r="C7" t="s">
         <v>97</v>
@@ -8065,7 +8065,7 @@
         <v>25501</v>
       </c>
       <c r="B8" t="n">
-        <v>135455</v>
+        <v>166373</v>
       </c>
       <c r="C8" t="s">
         <v>107</v>
@@ -8130,7 +8130,7 @@
         <v>25501</v>
       </c>
       <c r="B9" t="n">
-        <v>135456</v>
+        <v>166374</v>
       </c>
       <c r="C9" t="s">
         <v>117</v>
@@ -8205,7 +8205,7 @@
         <v>25501</v>
       </c>
       <c r="B10" t="n">
-        <v>135457</v>
+        <v>166375</v>
       </c>
       <c r="C10" t="s">
         <v>126</v>
@@ -8280,7 +8280,7 @@
         <v>25501</v>
       </c>
       <c r="B11" t="n">
-        <v>135458</v>
+        <v>166376</v>
       </c>
       <c r="C11" t="s">
         <v>133</v>
@@ -8355,7 +8355,7 @@
         <v>25501</v>
       </c>
       <c r="B12" t="n">
-        <v>135459</v>
+        <v>166377</v>
       </c>
       <c r="C12" t="s">
         <v>142</v>
@@ -8430,7 +8430,7 @@
         <v>25501</v>
       </c>
       <c r="B13" t="n">
-        <v>135460</v>
+        <v>166378</v>
       </c>
       <c r="C13" t="s">
         <v>153</v>
@@ -8580,7 +8580,7 @@
         <v>25501</v>
       </c>
       <c r="B15" t="n">
-        <v>135461</v>
+        <v>166379</v>
       </c>
       <c r="C15" t="s">
         <v>172</v>
@@ -8730,7 +8730,7 @@
         <v>25501</v>
       </c>
       <c r="B17" t="n">
-        <v>135462</v>
+        <v>166380</v>
       </c>
       <c r="C17" t="s">
         <v>187</v>
@@ -8805,7 +8805,7 @@
         <v>25501</v>
       </c>
       <c r="B18" t="n">
-        <v>135463</v>
+        <v>166381</v>
       </c>
       <c r="C18" t="s">
         <v>196</v>
@@ -8951,7 +8951,7 @@
         <v>25501</v>
       </c>
       <c r="B20" t="n">
-        <v>135464</v>
+        <v>166382</v>
       </c>
       <c r="C20" t="s">
         <v>209</v>
@@ -9026,7 +9026,7 @@
         <v>25501</v>
       </c>
       <c r="B21" t="n">
-        <v>135465</v>
+        <v>166383</v>
       </c>
       <c r="C21" t="s">
         <v>219</v>
@@ -9101,7 +9101,7 @@
         <v>25501</v>
       </c>
       <c r="B22" t="n">
-        <v>135466</v>
+        <v>166384</v>
       </c>
       <c r="C22" t="s">
         <v>226</v>
@@ -9176,7 +9176,7 @@
         <v>25501</v>
       </c>
       <c r="B23" t="n">
-        <v>135467</v>
+        <v>166385</v>
       </c>
       <c r="C23" t="s">
         <v>236</v>
@@ -9251,7 +9251,7 @@
         <v>25501</v>
       </c>
       <c r="B24" t="n">
-        <v>135468</v>
+        <v>166386</v>
       </c>
       <c r="C24" t="s">
         <v>245</v>
@@ -9326,7 +9326,7 @@
         <v>25501</v>
       </c>
       <c r="B25" t="n">
-        <v>135469</v>
+        <v>166387</v>
       </c>
       <c r="C25" t="s">
         <v>251</v>
@@ -9476,7 +9476,7 @@
         <v>25501</v>
       </c>
       <c r="B27" t="n">
-        <v>135470</v>
+        <v>166388</v>
       </c>
       <c r="C27" t="s">
         <v>269</v>
@@ -9551,7 +9551,7 @@
         <v>25501</v>
       </c>
       <c r="B28" t="n">
-        <v>135471</v>
+        <v>166389</v>
       </c>
       <c r="C28" t="s">
         <v>278</v>
@@ -9626,7 +9626,7 @@
         <v>25501</v>
       </c>
       <c r="B29" t="n">
-        <v>135472</v>
+        <v>166390</v>
       </c>
       <c r="C29" t="s">
         <v>288</v>
@@ -9701,7 +9701,7 @@
         <v>25501</v>
       </c>
       <c r="B30" t="n">
-        <v>135473</v>
+        <v>166391</v>
       </c>
       <c r="C30" t="s">
         <v>297</v>
@@ -9776,7 +9776,7 @@
         <v>25501</v>
       </c>
       <c r="B31" t="n">
-        <v>135474</v>
+        <v>166392</v>
       </c>
       <c r="C31" t="s">
         <v>306</v>
@@ -9851,7 +9851,7 @@
         <v>25501</v>
       </c>
       <c r="B32" t="n">
-        <v>135475</v>
+        <v>166393</v>
       </c>
       <c r="C32" t="s">
         <v>315</v>
@@ -9926,7 +9926,7 @@
         <v>25501</v>
       </c>
       <c r="B33" t="n">
-        <v>135476</v>
+        <v>166394</v>
       </c>
       <c r="C33" t="s">
         <v>324</v>
@@ -10001,7 +10001,7 @@
         <v>25501</v>
       </c>
       <c r="B34" t="n">
-        <v>135477</v>
+        <v>166395</v>
       </c>
       <c r="C34" t="s">
         <v>331</v>
@@ -10076,7 +10076,7 @@
         <v>25501</v>
       </c>
       <c r="B35" t="n">
-        <v>135478</v>
+        <v>166396</v>
       </c>
       <c r="C35" t="s">
         <v>341</v>
@@ -10151,7 +10151,7 @@
         <v>25501</v>
       </c>
       <c r="B36" t="n">
-        <v>135479</v>
+        <v>166397</v>
       </c>
       <c r="C36" t="s">
         <v>350</v>
@@ -10224,7 +10224,7 @@
         <v>25501</v>
       </c>
       <c r="B37" t="n">
-        <v>135480</v>
+        <v>166398</v>
       </c>
       <c r="C37" t="s">
         <v>355</v>
@@ -10297,7 +10297,7 @@
         <v>25501</v>
       </c>
       <c r="B38" t="n">
-        <v>135481</v>
+        <v>166399</v>
       </c>
       <c r="C38" t="s">
         <v>359</v>
@@ -10372,7 +10372,7 @@
         <v>25501</v>
       </c>
       <c r="B39" t="n">
-        <v>135482</v>
+        <v>166400</v>
       </c>
       <c r="C39" t="s">
         <v>368</v>
@@ -10447,7 +10447,7 @@
         <v>25501</v>
       </c>
       <c r="B40" t="n">
-        <v>135483</v>
+        <v>166401</v>
       </c>
       <c r="C40" t="s">
         <v>377</v>
@@ -10597,7 +10597,7 @@
         <v>25501</v>
       </c>
       <c r="B42" t="n">
-        <v>135484</v>
+        <v>166402</v>
       </c>
       <c r="C42" t="s">
         <v>394</v>
@@ -10672,7 +10672,7 @@
         <v>25501</v>
       </c>
       <c r="B43" t="n">
-        <v>135485</v>
+        <v>166403</v>
       </c>
       <c r="C43" t="s">
         <v>401</v>
@@ -10747,7 +10747,7 @@
         <v>25501</v>
       </c>
       <c r="B44" t="n">
-        <v>135486</v>
+        <v>166404</v>
       </c>
       <c r="C44" t="s">
         <v>411</v>
@@ -10822,7 +10822,7 @@
         <v>25501</v>
       </c>
       <c r="B45" t="n">
-        <v>135487</v>
+        <v>166405</v>
       </c>
       <c r="C45" t="s">
         <v>420</v>
@@ -10897,7 +10897,7 @@
         <v>25501</v>
       </c>
       <c r="B46" t="n">
-        <v>135488</v>
+        <v>166406</v>
       </c>
       <c r="C46" t="s">
         <v>429</v>
@@ -10972,7 +10972,7 @@
         <v>25501</v>
       </c>
       <c r="B47" t="n">
-        <v>135489</v>
+        <v>166407</v>
       </c>
       <c r="C47" t="s">
         <v>438</v>
@@ -11047,7 +11047,7 @@
         <v>25501</v>
       </c>
       <c r="B48" t="n">
-        <v>135490</v>
+        <v>166408</v>
       </c>
       <c r="C48" t="s">
         <v>447</v>
@@ -11118,7 +11118,7 @@
         <v>25501</v>
       </c>
       <c r="B49" t="n">
-        <v>135491</v>
+        <v>166409</v>
       </c>
       <c r="C49" t="s">
         <v>457</v>
@@ -11193,7 +11193,7 @@
         <v>25501</v>
       </c>
       <c r="B50" t="n">
-        <v>135492</v>
+        <v>166410</v>
       </c>
       <c r="C50" t="s">
         <v>466</v>
@@ -11268,7 +11268,7 @@
         <v>25501</v>
       </c>
       <c r="B51" t="n">
-        <v>135493</v>
+        <v>166411</v>
       </c>
       <c r="C51" t="s">
         <v>475</v>
@@ -11343,7 +11343,7 @@
         <v>25501</v>
       </c>
       <c r="B52" t="n">
-        <v>135494</v>
+        <v>166412</v>
       </c>
       <c r="C52" t="s">
         <v>484</v>
@@ -11408,7 +11408,7 @@
         <v>25501</v>
       </c>
       <c r="B53" t="n">
-        <v>135495</v>
+        <v>166413</v>
       </c>
       <c r="C53" t="s">
         <v>490</v>
@@ -11483,7 +11483,7 @@
         <v>25501</v>
       </c>
       <c r="B54" t="n">
-        <v>135496</v>
+        <v>166414</v>
       </c>
       <c r="C54" t="s">
         <v>499</v>
@@ -11558,7 +11558,7 @@
         <v>25501</v>
       </c>
       <c r="B55" t="n">
-        <v>135497</v>
+        <v>166415</v>
       </c>
       <c r="C55" t="s">
         <v>507</v>
@@ -11633,7 +11633,7 @@
         <v>25501</v>
       </c>
       <c r="B56" t="n">
-        <v>135498</v>
+        <v>166416</v>
       </c>
       <c r="C56" t="s">
         <v>516</v>
@@ -11708,7 +11708,7 @@
         <v>25501</v>
       </c>
       <c r="B57" t="n">
-        <v>135499</v>
+        <v>166417</v>
       </c>
       <c r="C57" t="s">
         <v>525</v>
@@ -11783,7 +11783,7 @@
         <v>25501</v>
       </c>
       <c r="B58" t="n">
-        <v>135500</v>
+        <v>166418</v>
       </c>
       <c r="C58" t="s">
         <v>534</v>
@@ -11852,7 +11852,7 @@
         <v>25501</v>
       </c>
       <c r="B59" t="n">
-        <v>135501</v>
+        <v>166419</v>
       </c>
       <c r="C59" t="s">
         <v>544</v>
@@ -11927,7 +11927,7 @@
         <v>25501</v>
       </c>
       <c r="B60" t="n">
-        <v>135502</v>
+        <v>166420</v>
       </c>
       <c r="C60" t="s">
         <v>553</v>
@@ -12077,7 +12077,7 @@
         <v>25501</v>
       </c>
       <c r="B62" t="n">
-        <v>135503</v>
+        <v>166421</v>
       </c>
       <c r="C62" t="s">
         <v>570</v>
@@ -12148,7 +12148,7 @@
         <v>25501</v>
       </c>
       <c r="B63" t="n">
-        <v>135504</v>
+        <v>166422</v>
       </c>
       <c r="C63" t="s">
         <v>579</v>
@@ -12223,7 +12223,7 @@
         <v>25501</v>
       </c>
       <c r="B64" t="n">
-        <v>135505</v>
+        <v>166423</v>
       </c>
       <c r="C64" t="s">
         <v>589</v>
@@ -12367,7 +12367,7 @@
         <v>25501</v>
       </c>
       <c r="B66" t="n">
-        <v>135506</v>
+        <v>166424</v>
       </c>
       <c r="C66" t="s">
         <v>607</v>
@@ -12442,7 +12442,7 @@
         <v>25501</v>
       </c>
       <c r="B67" t="n">
-        <v>135507</v>
+        <v>166425</v>
       </c>
       <c r="C67" t="s">
         <v>614</v>
@@ -12513,7 +12513,7 @@
         <v>25501</v>
       </c>
       <c r="B68" t="n">
-        <v>135508</v>
+        <v>166426</v>
       </c>
       <c r="C68" t="s">
         <v>624</v>
@@ -12586,7 +12586,7 @@
         <v>25501</v>
       </c>
       <c r="B69" t="n">
-        <v>135509</v>
+        <v>166427</v>
       </c>
       <c r="C69" t="s">
         <v>630</v>
@@ -12661,7 +12661,7 @@
         <v>25501</v>
       </c>
       <c r="B70" t="n">
-        <v>135510</v>
+        <v>166428</v>
       </c>
       <c r="C70" t="s">
         <v>636</v>
@@ -12736,7 +12736,7 @@
         <v>25501</v>
       </c>
       <c r="B71" t="n">
-        <v>135511</v>
+        <v>166429</v>
       </c>
       <c r="C71" t="s">
         <v>645</v>
@@ -12811,7 +12811,7 @@
         <v>25501</v>
       </c>
       <c r="B72" t="n">
-        <v>135512</v>
+        <v>166430</v>
       </c>
       <c r="C72" t="s">
         <v>655</v>
@@ -12886,7 +12886,7 @@
         <v>25501</v>
       </c>
       <c r="B73" t="n">
-        <v>135513</v>
+        <v>166431</v>
       </c>
       <c r="C73" t="s">
         <v>664</v>
@@ -12957,7 +12957,7 @@
         <v>25501</v>
       </c>
       <c r="B74" t="n">
-        <v>135514</v>
+        <v>166432</v>
       </c>
       <c r="C74" t="s">
         <v>674</v>
@@ -13107,7 +13107,7 @@
         <v>25501</v>
       </c>
       <c r="B76" t="n">
-        <v>135515</v>
+        <v>166433</v>
       </c>
       <c r="C76" t="s">
         <v>690</v>
@@ -13182,7 +13182,7 @@
         <v>25501</v>
       </c>
       <c r="B77" t="n">
-        <v>135516</v>
+        <v>166434</v>
       </c>
       <c r="C77" t="s">
         <v>699</v>
@@ -13257,7 +13257,7 @@
         <v>25501</v>
       </c>
       <c r="B78" t="n">
-        <v>135517</v>
+        <v>166435</v>
       </c>
       <c r="C78" t="s">
         <v>708</v>
@@ -13318,7 +13318,7 @@
         <v>25501</v>
       </c>
       <c r="B79" t="n">
-        <v>135518</v>
+        <v>166436</v>
       </c>
       <c r="C79" t="s">
         <v>717</v>
@@ -13389,7 +13389,7 @@
         <v>25501</v>
       </c>
       <c r="B80" t="n">
-        <v>135519</v>
+        <v>166437</v>
       </c>
       <c r="C80" t="s">
         <v>726</v>
@@ -13464,7 +13464,7 @@
         <v>25501</v>
       </c>
       <c r="B81" t="n">
-        <v>135520</v>
+        <v>166438</v>
       </c>
       <c r="C81" t="s">
         <v>733</v>
@@ -13539,7 +13539,7 @@
         <v>25501</v>
       </c>
       <c r="B82" t="n">
-        <v>135521</v>
+        <v>166439</v>
       </c>
       <c r="C82" t="s">
         <v>742</v>
@@ -13679,7 +13679,7 @@
         <v>25501</v>
       </c>
       <c r="B84" t="n">
-        <v>135522</v>
+        <v>166440</v>
       </c>
       <c r="C84" t="s">
         <v>757</v>
@@ -13752,7 +13752,7 @@
         <v>25501</v>
       </c>
       <c r="B85" t="n">
-        <v>135523</v>
+        <v>166441</v>
       </c>
       <c r="C85" t="s">
         <v>763</v>
@@ -13827,7 +13827,7 @@
         <v>25501</v>
       </c>
       <c r="B86" t="n">
-        <v>135524</v>
+        <v>166442</v>
       </c>
       <c r="C86" t="s">
         <v>772</v>
@@ -13967,7 +13967,7 @@
         <v>25501</v>
       </c>
       <c r="B88" t="n">
-        <v>135525</v>
+        <v>166443</v>
       </c>
       <c r="C88" t="s">
         <v>787</v>
@@ -14042,7 +14042,7 @@
         <v>25501</v>
       </c>
       <c r="B89" t="n">
-        <v>135526</v>
+        <v>166444</v>
       </c>
       <c r="C89" t="s">
         <v>796</v>
@@ -14113,7 +14113,7 @@
         <v>25501</v>
       </c>
       <c r="B90" t="n">
-        <v>135527</v>
+        <v>166445</v>
       </c>
       <c r="C90" t="s">
         <v>806</v>
@@ -14182,7 +14182,7 @@
         <v>25501</v>
       </c>
       <c r="B91" t="n">
-        <v>135528</v>
+        <v>166446</v>
       </c>
       <c r="C91" t="s">
         <v>815</v>
@@ -14257,7 +14257,7 @@
         <v>25501</v>
       </c>
       <c r="B92" t="n">
-        <v>135529</v>
+        <v>166447</v>
       </c>
       <c r="C92" t="s">
         <v>824</v>
@@ -14328,7 +14328,7 @@
         <v>25501</v>
       </c>
       <c r="B93" t="n">
-        <v>135530</v>
+        <v>166448</v>
       </c>
       <c r="C93" t="s">
         <v>833</v>
@@ -14403,7 +14403,7 @@
         <v>25501</v>
       </c>
       <c r="B94" t="n">
-        <v>135531</v>
+        <v>166449</v>
       </c>
       <c r="C94" t="s">
         <v>841</v>
@@ -14478,7 +14478,7 @@
         <v>25501</v>
       </c>
       <c r="B95" t="n">
-        <v>135532</v>
+        <v>166450</v>
       </c>
       <c r="C95" t="s">
         <v>848</v>
@@ -14553,7 +14553,7 @@
         <v>25501</v>
       </c>
       <c r="B96" t="n">
-        <v>135533</v>
+        <v>166451</v>
       </c>
       <c r="C96" t="s">
         <v>858</v>
@@ -14778,7 +14778,7 @@
         <v>25501</v>
       </c>
       <c r="B99" t="n">
-        <v>135534</v>
+        <v>166452</v>
       </c>
       <c r="C99" t="s">
         <v>883</v>
@@ -14853,7 +14853,7 @@
         <v>25501</v>
       </c>
       <c r="B100" t="n">
-        <v>135535</v>
+        <v>166453</v>
       </c>
       <c r="C100" t="s">
         <v>890</v>
@@ -14928,7 +14928,7 @@
         <v>25501</v>
       </c>
       <c r="B101" t="n">
-        <v>135536</v>
+        <v>166454</v>
       </c>
       <c r="C101" t="s">
         <v>900</v>
@@ -15058,7 +15058,7 @@
         <v>25501</v>
       </c>
       <c r="B103" t="n">
-        <v>135537</v>
+        <v>166455</v>
       </c>
       <c r="C103" t="s">
         <v>919</v>
@@ -15208,7 +15208,7 @@
         <v>25501</v>
       </c>
       <c r="B105" t="n">
-        <v>135538</v>
+        <v>166456</v>
       </c>
       <c r="C105" t="s">
         <v>936</v>
@@ -15283,7 +15283,7 @@
         <v>25501</v>
       </c>
       <c r="B106" t="n">
-        <v>135539</v>
+        <v>166457</v>
       </c>
       <c r="C106" t="s">
         <v>943</v>
@@ -15358,7 +15358,7 @@
         <v>25501</v>
       </c>
       <c r="B107" t="n">
-        <v>135540</v>
+        <v>166458</v>
       </c>
       <c r="C107" t="s">
         <v>953</v>
@@ -15508,7 +15508,7 @@
         <v>25501</v>
       </c>
       <c r="B109" t="n">
-        <v>135541</v>
+        <v>166459</v>
       </c>
       <c r="C109" t="s">
         <v>972</v>
@@ -15583,7 +15583,7 @@
         <v>25501</v>
       </c>
       <c r="B110" t="n">
-        <v>135542</v>
+        <v>166460</v>
       </c>
       <c r="C110" t="s">
         <v>981</v>
@@ -15654,7 +15654,7 @@
         <v>25501</v>
       </c>
       <c r="B111" t="n">
-        <v>135543</v>
+        <v>166461</v>
       </c>
       <c r="C111" t="s">
         <v>987</v>
@@ -15800,7 +15800,7 @@
         <v>25501</v>
       </c>
       <c r="B113" t="n">
-        <v>135544</v>
+        <v>166462</v>
       </c>
       <c r="C113" t="s">
         <v>1006</v>
@@ -15875,7 +15875,7 @@
         <v>25501</v>
       </c>
       <c r="B114" t="n">
-        <v>135545</v>
+        <v>166463</v>
       </c>
       <c r="C114" t="s">
         <v>1015</v>
@@ -16023,7 +16023,7 @@
         <v>25501</v>
       </c>
       <c r="B116" t="n">
-        <v>135546</v>
+        <v>166464</v>
       </c>
       <c r="C116" t="s">
         <v>1032</v>
@@ -16098,7 +16098,7 @@
         <v>25501</v>
       </c>
       <c r="B117" t="n">
-        <v>135547</v>
+        <v>166465</v>
       </c>
       <c r="C117" t="s">
         <v>1041</v>
@@ -16173,7 +16173,7 @@
         <v>25501</v>
       </c>
       <c r="B118" t="n">
-        <v>135548</v>
+        <v>166466</v>
       </c>
       <c r="C118" t="s">
         <v>1050</v>
@@ -16242,7 +16242,7 @@
         <v>25501</v>
       </c>
       <c r="B119" t="n">
-        <v>135549</v>
+        <v>135471</v>
       </c>
       <c r="C119" t="s">
         <v>1059</v>
@@ -16317,7 +16317,7 @@
         <v>25501</v>
       </c>
       <c r="B120" t="n">
-        <v>135550</v>
+        <v>166467</v>
       </c>
       <c r="C120" t="s">
         <v>1069</v>
@@ -16392,7 +16392,7 @@
         <v>25501</v>
       </c>
       <c r="B121" t="n">
-        <v>135551</v>
+        <v>166468</v>
       </c>
       <c r="C121" t="s">
         <v>1077</v>
@@ -16467,7 +16467,7 @@
         <v>25501</v>
       </c>
       <c r="B122" t="n">
-        <v>135548</v>
+        <v>135471</v>
       </c>
       <c r="C122" t="s">
         <v>1059</v>
@@ -16540,7 +16540,7 @@
         <v>25501</v>
       </c>
       <c r="B123" t="n">
-        <v>135552</v>
+        <v>166469</v>
       </c>
       <c r="C123" t="s">
         <v>1091</v>
@@ -16615,7 +16615,7 @@
         <v>25501</v>
       </c>
       <c r="B124" t="n">
-        <v>135553</v>
+        <v>166470</v>
       </c>
       <c r="C124" t="s">
         <v>1098</v>
@@ -16690,7 +16690,7 @@
         <v>25501</v>
       </c>
       <c r="B125" t="n">
-        <v>135554</v>
+        <v>166471</v>
       </c>
       <c r="C125" t="s">
         <v>1105</v>
@@ -16765,7 +16765,7 @@
         <v>25501</v>
       </c>
       <c r="B126" t="n">
-        <v>135555</v>
+        <v>166472</v>
       </c>
       <c r="C126" t="s">
         <v>1113</v>
@@ -16838,7 +16838,7 @@
         <v>25501</v>
       </c>
       <c r="B127" t="n">
-        <v>135556</v>
+        <v>166473</v>
       </c>
       <c r="C127" t="s">
         <v>1116</v>
@@ -16913,7 +16913,7 @@
         <v>25501</v>
       </c>
       <c r="B128" t="n">
-        <v>135557</v>
+        <v>166474</v>
       </c>
       <c r="C128" t="s">
         <v>1123</v>
@@ -16988,7 +16988,7 @@
         <v>25501</v>
       </c>
       <c r="B129" t="n">
-        <v>135558</v>
+        <v>166475</v>
       </c>
       <c r="C129" t="s">
         <v>1130</v>
@@ -17055,7 +17055,7 @@
         <v>25501</v>
       </c>
       <c r="B130" t="n">
-        <v>135559</v>
+        <v>166476</v>
       </c>
       <c r="C130" t="s">
         <v>1137</v>
@@ -17120,7 +17120,7 @@
         <v>25501</v>
       </c>
       <c r="B131" t="n">
-        <v>135560</v>
+        <v>166477</v>
       </c>
       <c r="C131" t="s">
         <v>1144</v>
@@ -17183,7 +17183,7 @@
         <v>25501</v>
       </c>
       <c r="B132" t="n">
-        <v>135561</v>
+        <v>166478</v>
       </c>
       <c r="C132" t="s">
         <v>1150</v>
@@ -17329,7 +17329,7 @@
         <v>25501</v>
       </c>
       <c r="B134" t="n">
-        <v>135562</v>
+        <v>166479</v>
       </c>
       <c r="C134" t="s">
         <v>1163</v>
@@ -17400,7 +17400,7 @@
         <v>25501</v>
       </c>
       <c r="B135" t="n">
-        <v>135563</v>
+        <v>166480</v>
       </c>
       <c r="C135" t="s">
         <v>1169</v>
@@ -17471,7 +17471,7 @@
         <v>25501</v>
       </c>
       <c r="B136" t="n">
-        <v>135564</v>
+        <v>166481</v>
       </c>
       <c r="C136" t="s">
         <v>1175</v>
@@ -17607,7 +17607,7 @@
         <v>25501</v>
       </c>
       <c r="B138" t="n">
-        <v>135565</v>
+        <v>166482</v>
       </c>
       <c r="C138" t="s">
         <v>1188</v>
@@ -17678,7 +17678,7 @@
         <v>25501</v>
       </c>
       <c r="B139" t="n">
-        <v>135566</v>
+        <v>166483</v>
       </c>
       <c r="C139" t="s">
         <v>1196</v>
@@ -17747,7 +17747,7 @@
         <v>25501</v>
       </c>
       <c r="B140" t="n">
-        <v>135567</v>
+        <v>166484</v>
       </c>
       <c r="C140" t="s">
         <v>1203</v>
@@ -17822,7 +17822,7 @@
         <v>25501</v>
       </c>
       <c r="B141" t="n">
-        <v>135568</v>
+        <v>166485</v>
       </c>
       <c r="C141" t="s">
         <v>1212</v>
@@ -17891,7 +17891,7 @@
         <v>25501</v>
       </c>
       <c r="B142" t="n">
-        <v>135569</v>
+        <v>166486</v>
       </c>
       <c r="C142" t="s">
         <v>1220</v>
@@ -18031,7 +18031,7 @@
         <v>25501</v>
       </c>
       <c r="B144" t="n">
-        <v>135570</v>
+        <v>166487</v>
       </c>
       <c r="C144" t="s">
         <v>1234</v>
@@ -18177,7 +18177,7 @@
         <v>25501</v>
       </c>
       <c r="B146" t="n">
-        <v>135571</v>
+        <v>166488</v>
       </c>
       <c r="C146" t="s">
         <v>1251</v>
@@ -18252,7 +18252,7 @@
         <v>25501</v>
       </c>
       <c r="B147" t="n">
-        <v>135572</v>
+        <v>166489</v>
       </c>
       <c r="C147" t="s">
         <v>1260</v>
@@ -18398,7 +18398,7 @@
         <v>25501</v>
       </c>
       <c r="B149" t="n">
-        <v>135573</v>
+        <v>166490</v>
       </c>
       <c r="C149" t="s">
         <v>1276</v>
@@ -18467,7 +18467,7 @@
         <v>25501</v>
       </c>
       <c r="B150" t="n">
-        <v>135574</v>
+        <v>166491</v>
       </c>
       <c r="C150" t="s">
         <v>1284</v>
@@ -18540,7 +18540,7 @@
         <v>25501</v>
       </c>
       <c r="B151" t="n">
-        <v>135575</v>
+        <v>166492</v>
       </c>
       <c r="C151" t="s">
         <v>1288</v>
@@ -18615,7 +18615,7 @@
         <v>25501</v>
       </c>
       <c r="B152" t="n">
-        <v>135576</v>
+        <v>166493</v>
       </c>
       <c r="C152" t="s">
         <v>1295</v>
@@ -18686,7 +18686,7 @@
         <v>25501</v>
       </c>
       <c r="B153" t="n">
-        <v>135577</v>
+        <v>166494</v>
       </c>
       <c r="C153" t="s">
         <v>1305</v>
@@ -18834,7 +18834,7 @@
         <v>25501</v>
       </c>
       <c r="B155" t="n">
-        <v>135578</v>
+        <v>166495</v>
       </c>
       <c r="C155" t="s">
         <v>1316</v>
@@ -18905,7 +18905,7 @@
         <v>25501</v>
       </c>
       <c r="B156" t="n">
-        <v>135579</v>
+        <v>166496</v>
       </c>
       <c r="C156" t="s">
         <v>1323</v>
@@ -18974,7 +18974,7 @@
         <v>25501</v>
       </c>
       <c r="B157" t="n">
-        <v>135580</v>
+        <v>166497</v>
       </c>
       <c r="C157" t="s">
         <v>1333</v>
@@ -19049,7 +19049,7 @@
         <v>25501</v>
       </c>
       <c r="B158" t="n">
-        <v>135581</v>
+        <v>166498</v>
       </c>
       <c r="C158" t="s">
         <v>1342</v>
@@ -19124,7 +19124,7 @@
         <v>25501</v>
       </c>
       <c r="B159" t="n">
-        <v>135582</v>
+        <v>166499</v>
       </c>
       <c r="C159" t="s">
         <v>1349</v>
@@ -19262,7 +19262,7 @@
         <v>25501</v>
       </c>
       <c r="B161" t="n">
-        <v>135583</v>
+        <v>166500</v>
       </c>
       <c r="C161" t="s">
         <v>1362</v>
@@ -19408,7 +19408,7 @@
         <v>25501</v>
       </c>
       <c r="B163" t="n">
-        <v>135584</v>
+        <v>166501</v>
       </c>
       <c r="C163" t="s">
         <v>1377</v>
@@ -19479,7 +19479,7 @@
         <v>25501</v>
       </c>
       <c r="B164" t="n">
-        <v>135585</v>
+        <v>166502</v>
       </c>
       <c r="C164" t="s">
         <v>1386</v>
@@ -19554,7 +19554,7 @@
         <v>25501</v>
       </c>
       <c r="B165" t="n">
-        <v>135586</v>
+        <v>166503</v>
       </c>
       <c r="C165" t="s">
         <v>1393</v>
@@ -19629,7 +19629,7 @@
         <v>25501</v>
       </c>
       <c r="B166" t="n">
-        <v>135587</v>
+        <v>166504</v>
       </c>
       <c r="C166" t="s">
         <v>1402</v>
@@ -19700,7 +19700,7 @@
         <v>25501</v>
       </c>
       <c r="B167" t="n">
-        <v>135588</v>
+        <v>166505</v>
       </c>
       <c r="C167" t="s">
         <v>1411</v>
@@ -19917,7 +19917,7 @@
         <v>25501</v>
       </c>
       <c r="B170" t="n">
-        <v>135589</v>
+        <v>166506</v>
       </c>
       <c r="C170" t="s">
         <v>1437</v>
@@ -20203,7 +20203,7 @@
         <v>25501</v>
       </c>
       <c r="B174" t="n">
-        <v>135590</v>
+        <v>166507</v>
       </c>
       <c r="C174" t="s">
         <v>1464</v>
@@ -20341,7 +20341,7 @@
         <v>25501</v>
       </c>
       <c r="B176" t="n">
-        <v>135591</v>
+        <v>166508</v>
       </c>
       <c r="C176" t="s">
         <v>1477</v>
@@ -20403,7 +20403,7 @@
         <v>25501</v>
       </c>
       <c r="B177" t="n">
-        <v>135592</v>
+        <v>166509</v>
       </c>
       <c r="C177" t="s">
         <v>1482</v>
@@ -20474,7 +20474,7 @@
         <v>25501</v>
       </c>
       <c r="B178" t="n">
-        <v>135593</v>
+        <v>166510</v>
       </c>
       <c r="C178" t="s">
         <v>1492</v>
@@ -20545,7 +20545,7 @@
         <v>25501</v>
       </c>
       <c r="B179" t="n">
-        <v>135594</v>
+        <v>166511</v>
       </c>
       <c r="C179" t="s">
         <v>1499</v>
@@ -20610,7 +20610,7 @@
         <v>25501</v>
       </c>
       <c r="B180" t="n">
-        <v>135595</v>
+        <v>166512</v>
       </c>
       <c r="C180" t="s">
         <v>1505</v>
@@ -20807,7 +20807,7 @@
         <v>25501</v>
       </c>
       <c r="B183" t="n">
-        <v>135596</v>
+        <v>166513</v>
       </c>
       <c r="C183" t="s">
         <v>1524</v>
@@ -20949,7 +20949,7 @@
         <v>25501</v>
       </c>
       <c r="B185" t="n">
-        <v>135597</v>
+        <v>166514</v>
       </c>
       <c r="C185" t="s">
         <v>1538</v>
@@ -21020,7 +21020,7 @@
         <v>25501</v>
       </c>
       <c r="B186" t="n">
-        <v>135598</v>
+        <v>166515</v>
       </c>
       <c r="C186" t="s">
         <v>1544</v>
@@ -21170,7 +21170,7 @@
         <v>25501</v>
       </c>
       <c r="B188" t="n">
-        <v>135599</v>
+        <v>166516</v>
       </c>
       <c r="C188" t="s">
         <v>1559</v>
@@ -21316,7 +21316,7 @@
         <v>25501</v>
       </c>
       <c r="B190" t="n">
-        <v>135600</v>
+        <v>166517</v>
       </c>
       <c r="C190" t="s">
         <v>1573</v>
@@ -21391,7 +21391,7 @@
         <v>25501</v>
       </c>
       <c r="B191" t="n">
-        <v>135601</v>
+        <v>166518</v>
       </c>
       <c r="C191" t="s">
         <v>1583</v>
@@ -21458,7 +21458,7 @@
         <v>25501</v>
       </c>
       <c r="B192" t="n">
-        <v>135602</v>
+        <v>166519</v>
       </c>
       <c r="C192" t="s">
         <v>1589</v>
@@ -21533,7 +21533,7 @@
         <v>25501</v>
       </c>
       <c r="B193" t="n">
-        <v>135603</v>
+        <v>166520</v>
       </c>
       <c r="C193" t="s">
         <v>1599</v>
@@ -21608,7 +21608,7 @@
         <v>25501</v>
       </c>
       <c r="B194" t="n">
-        <v>135604</v>
+        <v>166521</v>
       </c>
       <c r="C194" t="s">
         <v>1606</v>
@@ -21746,7 +21746,7 @@
         <v>25501</v>
       </c>
       <c r="B196" t="n">
-        <v>135605</v>
+        <v>166522</v>
       </c>
       <c r="C196" t="s">
         <v>1620</v>
@@ -21821,7 +21821,7 @@
         <v>25501</v>
       </c>
       <c r="B197" t="n">
-        <v>135606</v>
+        <v>166523</v>
       </c>
       <c r="C197" t="s">
         <v>1627</v>
@@ -21896,7 +21896,7 @@
         <v>25501</v>
       </c>
       <c r="B198" t="n">
-        <v>135607</v>
+        <v>166524</v>
       </c>
       <c r="C198" t="s">
         <v>1636</v>
@@ -21969,7 +21969,7 @@
         <v>25501</v>
       </c>
       <c r="B199" t="n">
-        <v>135608</v>
+        <v>166525</v>
       </c>
       <c r="C199" t="s">
         <v>1645</v>
@@ -22044,7 +22044,7 @@
         <v>25501</v>
       </c>
       <c r="B200" t="n">
-        <v>135609</v>
+        <v>166526</v>
       </c>
       <c r="C200" t="s">
         <v>1654</v>
@@ -22117,7 +22117,7 @@
         <v>25501</v>
       </c>
       <c r="B201" t="n">
-        <v>135610</v>
+        <v>166527</v>
       </c>
       <c r="C201" t="s">
         <v>1662</v>
@@ -22263,7 +22263,7 @@
         <v>25501</v>
       </c>
       <c r="B203" t="n">
-        <v>135611</v>
+        <v>166528</v>
       </c>
       <c r="C203" t="s">
         <v>1679</v>
@@ -22338,7 +22338,7 @@
         <v>25501</v>
       </c>
       <c r="B204" t="n">
-        <v>135612</v>
+        <v>166529</v>
       </c>
       <c r="C204" t="s">
         <v>1686</v>
@@ -22409,7 +22409,7 @@
         <v>25501</v>
       </c>
       <c r="B205" t="n">
-        <v>135613</v>
+        <v>166530</v>
       </c>
       <c r="C205" t="s">
         <v>1692</v>
@@ -22480,7 +22480,7 @@
         <v>25501</v>
       </c>
       <c r="B206" t="n">
-        <v>135614</v>
+        <v>166531</v>
       </c>
       <c r="C206" t="s">
         <v>1698</v>
@@ -22555,7 +22555,7 @@
         <v>25501</v>
       </c>
       <c r="B207" t="n">
-        <v>135615</v>
+        <v>166532</v>
       </c>
       <c r="C207" t="s">
         <v>1704</v>
@@ -22630,7 +22630,7 @@
         <v>25501</v>
       </c>
       <c r="B208" t="n">
-        <v>135616</v>
+        <v>166533</v>
       </c>
       <c r="C208" t="s">
         <v>1711</v>
@@ -22695,7 +22695,7 @@
         <v>25501</v>
       </c>
       <c r="B209" t="n">
-        <v>135617</v>
+        <v>166534</v>
       </c>
       <c r="C209" t="s">
         <v>1719</v>
@@ -22770,7 +22770,7 @@
         <v>25501</v>
       </c>
       <c r="B210" t="n">
-        <v>135618</v>
+        <v>166535</v>
       </c>
       <c r="C210" t="s">
         <v>1726</v>
@@ -22835,7 +22835,7 @@
         <v>25501</v>
       </c>
       <c r="B211" t="n">
-        <v>135619</v>
+        <v>166536</v>
       </c>
       <c r="C211" t="s">
         <v>1735</v>
@@ -22910,7 +22910,7 @@
         <v>25501</v>
       </c>
       <c r="B212" t="n">
-        <v>135620</v>
+        <v>166537</v>
       </c>
       <c r="C212" t="s">
         <v>1744</v>
@@ -22985,7 +22985,7 @@
         <v>25501</v>
       </c>
       <c r="B213" t="n">
-        <v>135621</v>
+        <v>166538</v>
       </c>
       <c r="C213" t="s">
         <v>1752</v>
@@ -23135,7 +23135,7 @@
         <v>25501</v>
       </c>
       <c r="B215" t="n">
-        <v>135622</v>
+        <v>166539</v>
       </c>
       <c r="C215" t="s">
         <v>1766</v>
@@ -23210,7 +23210,7 @@
         <v>25501</v>
       </c>
       <c r="B216" t="n">
-        <v>135623</v>
+        <v>166540</v>
       </c>
       <c r="C216" t="s">
         <v>1775</v>
@@ -23281,7 +23281,7 @@
         <v>25501</v>
       </c>
       <c r="B217" t="n">
-        <v>135624</v>
+        <v>166541</v>
       </c>
       <c r="C217" t="s">
         <v>1782</v>
@@ -23356,7 +23356,7 @@
         <v>25501</v>
       </c>
       <c r="B218" t="n">
-        <v>135625</v>
+        <v>166542</v>
       </c>
       <c r="C218" t="s">
         <v>1791</v>
@@ -23431,7 +23431,7 @@
         <v>25501</v>
       </c>
       <c r="B219" t="n">
-        <v>135626</v>
+        <v>166543</v>
       </c>
       <c r="C219" t="s">
         <v>1798</v>
@@ -23506,7 +23506,7 @@
         <v>25501</v>
       </c>
       <c r="B220" t="n">
-        <v>135627</v>
+        <v>166544</v>
       </c>
       <c r="C220" t="s">
         <v>1805</v>
@@ -23581,7 +23581,7 @@
         <v>25501</v>
       </c>
       <c r="B221" t="n">
-        <v>135628</v>
+        <v>166545</v>
       </c>
       <c r="C221" t="s">
         <v>1812</v>
@@ -23881,7 +23881,7 @@
         <v>25501</v>
       </c>
       <c r="B225" t="n">
-        <v>135629</v>
+        <v>166546</v>
       </c>
       <c r="C225" t="s">
         <v>1845</v>
@@ -23956,7 +23956,7 @@
         <v>25501</v>
       </c>
       <c r="B226" t="n">
-        <v>135630</v>
+        <v>166547</v>
       </c>
       <c r="C226" t="s">
         <v>1852</v>
@@ -24027,7 +24027,7 @@
         <v>25501</v>
       </c>
       <c r="B227" t="n">
-        <v>135631</v>
+        <v>166548</v>
       </c>
       <c r="C227" t="s">
         <v>1858</v>
@@ -24102,7 +24102,7 @@
         <v>25501</v>
       </c>
       <c r="B228" t="n">
-        <v>135632</v>
+        <v>166549</v>
       </c>
       <c r="C228" t="s">
         <v>1867</v>
@@ -24177,7 +24177,7 @@
         <v>25501</v>
       </c>
       <c r="B229" t="n">
-        <v>135633</v>
+        <v>166550</v>
       </c>
       <c r="C229" t="s">
         <v>1874</v>
@@ -24323,7 +24323,7 @@
         <v>25501</v>
       </c>
       <c r="B231" t="n">
-        <v>135634</v>
+        <v>166551</v>
       </c>
       <c r="C231" t="s">
         <v>1890</v>
@@ -24398,7 +24398,7 @@
         <v>25501</v>
       </c>
       <c r="B232" t="n">
-        <v>135635</v>
+        <v>166552</v>
       </c>
       <c r="C232" t="s">
         <v>1896</v>
@@ -24698,7 +24698,7 @@
         <v>25501</v>
       </c>
       <c r="B236" t="n">
-        <v>135636</v>
+        <v>166553</v>
       </c>
       <c r="C236" t="s">
         <v>1929</v>
@@ -24769,7 +24769,7 @@
         <v>25501</v>
       </c>
       <c r="B237" t="n">
-        <v>135637</v>
+        <v>166554</v>
       </c>
       <c r="C237" t="s">
         <v>1938</v>
@@ -25067,7 +25067,7 @@
         <v>25501</v>
       </c>
       <c r="B241" t="n">
-        <v>135638</v>
+        <v>166555</v>
       </c>
       <c r="C241" t="s">
         <v>1969</v>
@@ -25142,7 +25142,7 @@
         <v>25501</v>
       </c>
       <c r="B242" t="n">
-        <v>135639</v>
+        <v>166556</v>
       </c>
       <c r="C242" t="s">
         <v>1976</v>
@@ -25288,7 +25288,7 @@
         <v>25501</v>
       </c>
       <c r="B244" t="n">
-        <v>135640</v>
+        <v>166557</v>
       </c>
       <c r="C244" t="s">
         <v>1992</v>
@@ -25363,7 +25363,7 @@
         <v>25501</v>
       </c>
       <c r="B245" t="n">
-        <v>135641</v>
+        <v>166558</v>
       </c>
       <c r="C245" t="s">
         <v>2002</v>
@@ -25438,7 +25438,7 @@
         <v>25501</v>
       </c>
       <c r="B246" t="n">
-        <v>135642</v>
+        <v>166559</v>
       </c>
       <c r="C246" t="s">
         <v>2012</v>
@@ -25509,7 +25509,7 @@
         <v>25501</v>
       </c>
       <c r="B247" t="n">
-        <v>135643</v>
+        <v>166560</v>
       </c>
       <c r="C247" t="s">
         <v>2019</v>
@@ -25584,7 +25584,7 @@
         <v>25501</v>
       </c>
       <c r="B248" t="n">
-        <v>135644</v>
+        <v>166561</v>
       </c>
       <c r="C248" t="s">
         <v>2027</v>
@@ -25659,7 +25659,7 @@
         <v>25501</v>
       </c>
       <c r="B249" t="n">
-        <v>135645</v>
+        <v>166562</v>
       </c>
       <c r="C249" t="s">
         <v>2037</v>
@@ -25730,7 +25730,7 @@
         <v>25501</v>
       </c>
       <c r="B250" t="n">
-        <v>135646</v>
+        <v>166563</v>
       </c>
       <c r="C250" t="s">
         <v>2044</v>
@@ -25801,7 +25801,7 @@
         <v>25501</v>
       </c>
       <c r="B251" t="n">
-        <v>135647</v>
+        <v>166564</v>
       </c>
       <c r="C251" t="s">
         <v>2051</v>
@@ -25872,7 +25872,7 @@
         <v>25501</v>
       </c>
       <c r="B252" t="n">
-        <v>135648</v>
+        <v>166565</v>
       </c>
       <c r="C252" t="s">
         <v>2057</v>
@@ -25943,7 +25943,7 @@
         <v>25501</v>
       </c>
       <c r="B253" t="n">
-        <v>135649</v>
+        <v>166566</v>
       </c>
       <c r="C253" t="s">
         <v>2064</v>
@@ -26014,7 +26014,7 @@
         <v>25501</v>
       </c>
       <c r="B254" t="n">
-        <v>135650</v>
+        <v>166567</v>
       </c>
       <c r="C254" t="s">
         <v>2070</v>
@@ -26156,7 +26156,7 @@
         <v>25501</v>
       </c>
       <c r="B256" t="n">
-        <v>135651</v>
+        <v>166568</v>
       </c>
       <c r="C256" t="s">
         <v>2083</v>
@@ -26227,7 +26227,7 @@
         <v>25501</v>
       </c>
       <c r="B257" t="n">
-        <v>135652</v>
+        <v>166569</v>
       </c>
       <c r="C257" t="s">
         <v>2088</v>
@@ -26296,7 +26296,7 @@
         <v>25501</v>
       </c>
       <c r="B258" t="n">
-        <v>135653</v>
+        <v>166570</v>
       </c>
       <c r="C258" t="s">
         <v>2096</v>
@@ -26367,7 +26367,7 @@
         <v>25501</v>
       </c>
       <c r="B259" t="n">
-        <v>135654</v>
+        <v>166571</v>
       </c>
       <c r="C259" t="s">
         <v>2103</v>
@@ -26438,7 +26438,7 @@
         <v>25501</v>
       </c>
       <c r="B260" t="n">
-        <v>135655</v>
+        <v>166572</v>
       </c>
       <c r="C260" t="s">
         <v>2111</v>
@@ -26509,7 +26509,7 @@
         <v>25501</v>
       </c>
       <c r="B261" t="n">
-        <v>135656</v>
+        <v>166573</v>
       </c>
       <c r="C261" t="s">
         <v>2118</v>
@@ -26580,7 +26580,7 @@
         <v>25501</v>
       </c>
       <c r="B262" t="n">
-        <v>135657</v>
+        <v>166574</v>
       </c>
       <c r="C262" t="s">
         <v>2126</v>
@@ -26647,7 +26647,7 @@
         <v>25501</v>
       </c>
       <c r="B263" t="n">
-        <v>135658</v>
+        <v>166575</v>
       </c>
       <c r="C263" t="s">
         <v>2132</v>
@@ -26714,7 +26714,7 @@
         <v>25501</v>
       </c>
       <c r="B264" t="n">
-        <v>135659</v>
+        <v>166576</v>
       </c>
       <c r="C264" t="s">
         <v>2138</v>
@@ -26856,7 +26856,7 @@
         <v>25501</v>
       </c>
       <c r="B266" t="n">
-        <v>135660</v>
+        <v>166577</v>
       </c>
       <c r="C266" t="s">
         <v>2151</v>
@@ -26923,7 +26923,7 @@
         <v>25501</v>
       </c>
       <c r="B267" t="n">
-        <v>135661</v>
+        <v>166578</v>
       </c>
       <c r="C267" t="s">
         <v>2159</v>
@@ -26988,7 +26988,7 @@
         <v>25501</v>
       </c>
       <c r="B268" t="n">
-        <v>135662</v>
+        <v>166579</v>
       </c>
       <c r="C268" t="s">
         <v>2166</v>
@@ -27055,7 +27055,7 @@
         <v>25501</v>
       </c>
       <c r="B269" t="n">
-        <v>135663</v>
+        <v>166580</v>
       </c>
       <c r="C269" t="s">
         <v>2174</v>
@@ -27193,7 +27193,7 @@
         <v>25501</v>
       </c>
       <c r="B271" t="n">
-        <v>135664</v>
+        <v>166581</v>
       </c>
       <c r="C271" t="s">
         <v>2187</v>
@@ -27264,7 +27264,7 @@
         <v>25501</v>
       </c>
       <c r="B272" t="n">
-        <v>135665</v>
+        <v>166582</v>
       </c>
       <c r="C272" t="s">
         <v>2194</v>
@@ -27335,7 +27335,7 @@
         <v>25501</v>
       </c>
       <c r="B273" t="n">
-        <v>135666</v>
+        <v>166583</v>
       </c>
       <c r="C273" t="s">
         <v>2202</v>
@@ -27406,7 +27406,7 @@
         <v>25501</v>
       </c>
       <c r="B274" t="n">
-        <v>135667</v>
+        <v>166584</v>
       </c>
       <c r="C274" t="s">
         <v>2209</v>
@@ -27477,7 +27477,7 @@
         <v>25501</v>
       </c>
       <c r="B275" t="n">
-        <v>135668</v>
+        <v>166585</v>
       </c>
       <c r="C275" t="s">
         <v>2216</v>
@@ -27548,7 +27548,7 @@
         <v>25501</v>
       </c>
       <c r="B276" t="n">
-        <v>135669</v>
+        <v>166586</v>
       </c>
       <c r="C276" t="s">
         <v>2224</v>
@@ -27619,7 +27619,7 @@
         <v>25501</v>
       </c>
       <c r="B277" t="n">
-        <v>135670</v>
+        <v>166587</v>
       </c>
       <c r="C277" t="s">
         <v>2232</v>
@@ -27690,7 +27690,7 @@
         <v>25501</v>
       </c>
       <c r="B278" t="n">
-        <v>135671</v>
+        <v>166588</v>
       </c>
       <c r="C278" t="s">
         <v>2239</v>
@@ -27761,7 +27761,7 @@
         <v>25501</v>
       </c>
       <c r="B279" t="n">
-        <v>135672</v>
+        <v>166589</v>
       </c>
       <c r="C279" t="s">
         <v>2247</v>
@@ -27832,7 +27832,7 @@
         <v>25501</v>
       </c>
       <c r="B280" t="n">
-        <v>135673</v>
+        <v>166590</v>
       </c>
       <c r="C280" t="s">
         <v>2255</v>
@@ -27903,7 +27903,7 @@
         <v>25501</v>
       </c>
       <c r="B281" t="n">
-        <v>135674</v>
+        <v>166591</v>
       </c>
       <c r="C281" t="s">
         <v>2262</v>
@@ -27974,7 +27974,7 @@
         <v>25501</v>
       </c>
       <c r="B282" t="n">
-        <v>135675</v>
+        <v>166592</v>
       </c>
       <c r="C282" t="s">
         <v>2270</v>
@@ -28045,7 +28045,7 @@
         <v>25501</v>
       </c>
       <c r="B283" t="n">
-        <v>135676</v>
+        <v>166593</v>
       </c>
       <c r="C283" t="s">
         <v>2277</v>
@@ -28116,7 +28116,7 @@
         <v>25501</v>
       </c>
       <c r="B284" t="n">
-        <v>135677</v>
+        <v>166594</v>
       </c>
       <c r="C284" t="s">
         <v>2284</v>
@@ -28187,7 +28187,7 @@
         <v>25501</v>
       </c>
       <c r="B285" t="n">
-        <v>135678</v>
+        <v>166595</v>
       </c>
       <c r="C285" t="s">
         <v>2292</v>
@@ -28258,7 +28258,7 @@
         <v>25501</v>
       </c>
       <c r="B286" t="n">
-        <v>135679</v>
+        <v>166596</v>
       </c>
       <c r="C286" t="s">
         <v>2300</v>
@@ -28315,7 +28315,7 @@
         <v>25501</v>
       </c>
       <c r="B287" t="n">
-        <v>135680</v>
+        <v>166597</v>
       </c>
       <c r="C287" t="s">
         <v>2307</v>
@@ -28372,7 +28372,7 @@
         <v>25501</v>
       </c>
       <c r="B288" t="n">
-        <v>135681</v>
+        <v>166598</v>
       </c>
       <c r="C288" t="s">
         <v>2314</v>
@@ -28443,7 +28443,7 @@
         <v>25501</v>
       </c>
       <c r="B289" t="n">
-        <v>135682</v>
+        <v>166599</v>
       </c>
       <c r="C289" t="s">
         <v>2321</v>
@@ -28644,7 +28644,7 @@
         <v>25501</v>
       </c>
       <c r="B292" t="n">
-        <v>135683</v>
+        <v>166600</v>
       </c>
       <c r="C292" t="s">
         <v>2339</v>
